--- a/LOGS/1cdca64c-977f-49f2-b3a9-942283159474/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/1cdca64c-977f-49f2-b3a9-942283159474/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="75">
   <si>
     <t>rows</t>
   </si>
@@ -41,18 +41,27 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>None Cash and cash equivalents</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>None Short-term deposits</t>
   </si>
   <si>
     <t>$ $</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Current Trade receivables</t>
   </si>
   <si>
@@ -65,6 +74,9 @@
     <t>Current Total</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Finished goods At cost</t>
   </si>
   <si>
@@ -80,6 +92,9 @@
     <t>Spare parts Total inventory at the lower of costs and net realisable value</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Current Prepayments</t>
   </si>
   <si>
@@ -92,6 +107,9 @@
     <t>Non-current Total</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Cost At 1 April 2022</t>
   </si>
   <si>
@@ -131,6 +149,9 @@
     <t>Total $</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Accumulated amortisation At 1A April 2022</t>
   </si>
   <si>
@@ -143,6 +164,9 @@
     <t>Software $</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Current Trade payables</t>
   </si>
   <si>
@@ -155,6 +179,9 @@
     <t>Current Goods and services tax</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>10% of the contract price received from a customer for a rail project on contract execution and project commencement</t>
   </si>
   <si>
@@ -167,6 +194,9 @@
     <t>Advance payment received from a customer when placing orders for elevator Total</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Current Employee benefits</t>
   </si>
   <si>
@@ -182,6 +212,9 @@
     <t>Non-current Restructuring and relocation costs</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>None At 1 April 2022</t>
   </si>
   <si>
@@ -212,7 +245,13 @@
     <t>None Total</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>None Financial assets at fair value through OCI</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -570,13 +609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,13 +628,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -603,19 +645,25 @@
       <c r="D2">
         <v>36863801</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>44129828</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -625,13 +673,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,13 +692,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -658,13 +709,16 @@
       <c r="D2">
         <v>1282684</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -672,13 +726,16 @@
       <c r="D3">
         <v>766473</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -686,13 +743,16 @@
       <c r="D4">
         <v>154825</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -700,13 +760,16 @@
       <c r="D5">
         <v>2203982</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -714,13 +777,16 @@
       <c r="D6">
         <v>203908</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -728,13 +794,16 @@
       <c r="D7">
         <v>248556</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -742,13 +811,16 @@
       <c r="D8">
         <v>452464</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -756,13 +828,16 @@
       <c r="D9">
         <v>1095787</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -770,13 +845,16 @@
       <c r="D10">
         <v>756962</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -784,13 +862,16 @@
       <c r="D11">
         <v>185341</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -798,13 +879,16 @@
       <c r="D12">
         <v>2038090</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -812,13 +896,16 @@
       <c r="D13">
         <v>123872</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -826,19 +913,25 @@
       <c r="D14">
         <v>238961</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
         <v>362833</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -848,13 +941,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,13 +960,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -881,13 +977,16 @@
       <c r="D2">
         <v>756962</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -895,13 +994,16 @@
       <c r="D3">
         <v>119419</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -909,13 +1011,16 @@
       <c r="D4">
         <v>-109908</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -923,13 +1028,16 @@
       <c r="D5">
         <v>766473</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -937,13 +1045,16 @@
       <c r="D6">
         <v>424302</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -951,13 +1062,16 @@
       <c r="D7">
         <v>104633</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -965,13 +1079,16 @@
       <c r="D8">
         <v>-125554</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -979,13 +1096,16 @@
       <c r="D9">
         <v>403381</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -993,13 +1113,16 @@
       <c r="D10">
         <v>1181264</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1007,13 +1130,16 @@
       <c r="D11">
         <v>224052</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1021,19 +1147,25 @@
       <c r="D12">
         <v>-235462</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>2023</v>
       </c>
       <c r="D13">
         <v>1169854</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1043,13 +1175,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1062,13 +1194,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1076,13 +1211,16 @@
       <c r="D2">
         <v>1900000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1090,13 +1228,16 @@
       <c r="D3">
         <v>17435325</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1104,13 +1245,16 @@
       <c r="D4">
         <v>19335325</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1118,13 +1262,16 @@
       <c r="D5">
         <v>1900000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1132,19 +1279,25 @@
       <c r="D6">
         <v>17435325</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>19335325</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1166,13 +1319,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,13 +1338,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1199,19 +1355,25 @@
       <c r="D2">
         <v>31500</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>35000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1221,13 +1383,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,13 +1402,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1254,19 +1419,25 @@
       <c r="D2">
         <v>700000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>700000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1276,13 +1447,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,13 +1466,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1309,13 +1483,16 @@
       <c r="D2">
         <v>6861283</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1323,13 +1500,16 @@
       <c r="D3">
         <v>4400617</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1337,13 +1517,16 @@
       <c r="D4">
         <v>33741</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1351,13 +1534,16 @@
       <c r="D5">
         <v>11295641</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1365,13 +1551,16 @@
       <c r="D6">
         <v>8463813</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1379,13 +1568,16 @@
       <c r="D7">
         <v>3578211</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1393,19 +1585,25 @@
       <c r="D8">
         <v>4460</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>12046484</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1415,13 +1613,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1434,13 +1632,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1448,13 +1649,16 @@
       <c r="D2">
         <v>9164848</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1462,13 +1666,16 @@
       <c r="D3">
         <v>9164848</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1476,13 +1683,16 @@
       <c r="D4">
         <v>149533</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1490,13 +1700,16 @@
       <c r="D5">
         <v>149533</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1504,13 +1717,16 @@
       <c r="D6">
         <v>9314381</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1518,13 +1734,16 @@
       <c r="D7">
         <v>3326388</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1532,13 +1751,16 @@
       <c r="D8">
         <v>3326388</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1546,13 +1768,16 @@
       <c r="D9">
         <v>150580</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1560,19 +1785,25 @@
       <c r="D10">
         <v>150580</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>3476968</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1582,13 +1813,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1601,13 +1832,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1615,13 +1849,16 @@
       <c r="D2">
         <v>754690</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1629,13 +1866,16 @@
       <c r="D3">
         <v>7690</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1643,13 +1883,16 @@
       <c r="D4">
         <v>25000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1657,13 +1900,16 @@
       <c r="D5">
         <v>32690</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1671,13 +1917,16 @@
       <c r="D6">
         <v>1236754</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1685,13 +1934,16 @@
       <c r="D7">
         <v>14490</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1699,19 +1951,25 @@
       <c r="D8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>34490</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1721,13 +1979,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1740,13 +1998,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1754,13 +2015,16 @@
       <c r="D2">
         <v>674353</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1768,13 +2032,16 @@
       <c r="D3">
         <v>101575</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1782,13 +2049,16 @@
       <c r="D4">
         <v>-48706</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1796,13 +2066,16 @@
       <c r="D5">
         <v>727222</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1810,13 +2083,16 @@
       <c r="D6">
         <v>579226</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1824,13 +2100,16 @@
       <c r="D7">
         <v>59645</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1838,13 +2117,16 @@
       <c r="D8">
         <v>-48315</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1852,13 +2134,16 @@
       <c r="D9">
         <v>590556</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1866,13 +2151,16 @@
       <c r="D10">
         <v>136666</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1880,13 +2168,16 @@
       <c r="D11">
         <v>95127</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1894,13 +2185,16 @@
       <c r="D12">
         <v>823948</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1908,13 +2202,16 @@
       <c r="D13">
         <v>65100</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -1922,13 +2219,16 @@
       <c r="D14">
         <v>-28649</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1936,13 +2236,16 @@
       <c r="D15">
         <v>860399</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -1950,13 +2253,16 @@
       <c r="D16">
         <v>823948</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1964,13 +2270,16 @@
       <c r="D17">
         <v>299</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -1978,13 +2287,16 @@
       <c r="D18">
         <v>-28649</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -1992,13 +2304,16 @@
       <c r="D19">
         <v>795598</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -2006,13 +2321,16 @@
       <c r="D20">
         <v>64801</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -2020,13 +2338,16 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -2034,13 +2355,16 @@
       <c r="D22">
         <v>1498301</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -2048,13 +2372,16 @@
       <c r="D23">
         <v>166675</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -2062,13 +2389,16 @@
       <c r="D24">
         <v>-77355</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -2076,13 +2406,16 @@
       <c r="D25">
         <v>1587621</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -2090,13 +2423,16 @@
       <c r="D26">
         <v>1403174</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -2104,13 +2440,16 @@
       <c r="D27">
         <v>59944</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -2118,13 +2457,16 @@
       <c r="D28">
         <v>-76964</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -2132,13 +2474,16 @@
       <c r="D29">
         <v>1386154</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -2146,19 +2491,25 @@
       <c r="D30">
         <v>201467</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <v>2022</v>
       </c>
       <c r="D31">
         <v>95127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2168,13 +2519,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2187,13 +2538,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -2201,13 +2555,16 @@
       <c r="D2">
         <v>300089</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2215,13 +2572,16 @@
       <c r="D3">
         <v>2420</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2229,13 +2589,16 @@
       <c r="D4">
         <v>302509</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -2243,13 +2606,16 @@
       <c r="D5">
         <v>238133</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2257,13 +2623,16 @@
       <c r="D6">
         <v>27014</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2271,13 +2640,16 @@
       <c r="D7">
         <v>265147</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -2285,19 +2657,25 @@
       <c r="D8">
         <v>37362</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>61956</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2307,13 +2685,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2326,10 +2704,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2337,10 +2718,13 @@
       <c r="D2">
         <v>2053402</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2348,10 +2732,13 @@
       <c r="D3">
         <v>3057397</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2359,10 +2746,13 @@
       <c r="D4">
         <v>3284351</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2370,10 +2760,13 @@
       <c r="D5">
         <v>246683</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2381,10 +2774,13 @@
       <c r="D6">
         <v>8641833</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2392,10 +2788,13 @@
       <c r="D7">
         <v>1441515</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2403,10 +2802,13 @@
       <c r="D8">
         <v>3378274</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2414,10 +2816,13 @@
       <c r="D9">
         <v>3002463</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -2425,16 +2830,22 @@
       <c r="D10">
         <v>179848</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>8002100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2444,13 +2855,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2463,13 +2874,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2477,13 +2891,16 @@
       <c r="D2">
         <v>618630</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2491,13 +2908,16 @@
       <c r="D3">
         <v>63330</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2505,13 +2925,16 @@
       <c r="D4">
         <v>344879</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2519,13 +2942,16 @@
       <c r="D5">
         <v>1026839</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2533,13 +2959,16 @@
       <c r="D6">
         <v>1237259</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2547,13 +2976,16 @@
       <c r="D7">
         <v>389420</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2561,19 +2993,25 @@
       <c r="D8">
         <v>329629</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>1956308</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
